--- a/Data/drugs_data.xlsx
+++ b/Data/drugs_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD3EEA-AB60-9E42-B08D-01D4A27E72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419A6D3-5932-3243-9E75-8BDF8EB25402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{F4AA2BEB-EDFF-5247-8523-487153F35C5B}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
-    <t>drug_name</t>
-  </si>
-  <si>
     <t>AAS</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2C1F1B0F-4433-0841-83DB-0D60EB2EBAC9}" name="drug_name"/>
+    <tableColumn id="1" xr3:uid="{2C1F1B0F-4433-0841-83DB-0D60EB2EBAC9}" name="name"/>
     <tableColumn id="2" xr3:uid="{06EA2891-F0A3-A840-A3EE-693B3007C9A9}" name="level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58A342-8887-1441-91BB-E9053AEFEACF}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,15 +682,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>3</v>
